--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrp-Mc3r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrp-Mc3r.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8343319999999999</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H2">
-        <v>2.502996</v>
+        <v>0.671849</v>
       </c>
       <c r="I2">
-        <v>0.7235598159154505</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="J2">
-        <v>0.7235598159154506</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02548766666666667</v>
+        <v>0.01499333333333333</v>
       </c>
       <c r="N2">
-        <v>0.076463</v>
+        <v>0.04498</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02126517590533333</v>
+        <v>0.003357752002222222</v>
       </c>
       <c r="R2">
-        <v>0.191386583148</v>
+        <v>0.03021976802</v>
       </c>
       <c r="S2">
-        <v>0.7235598159154505</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="T2">
-        <v>0.7235598159154506</v>
+        <v>0.4264743968982249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>0.630374</v>
       </c>
       <c r="I3">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="J3">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02548766666666667</v>
+        <v>0.01499333333333333</v>
       </c>
       <c r="N3">
-        <v>0.076463</v>
+        <v>0.04498</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.005355587462444445</v>
+        <v>0.003150469168888888</v>
       </c>
       <c r="R3">
-        <v>0.048200287162</v>
+        <v>0.02835422252</v>
       </c>
       <c r="S3">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="T3">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1086366666666667</v>
+        <v>0.09104433333333334</v>
       </c>
       <c r="H4">
-        <v>0.32591</v>
+        <v>0.273133</v>
       </c>
       <c r="I4">
-        <v>0.09421324668717189</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="J4">
-        <v>0.09421324668717192</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02548766666666667</v>
+        <v>0.01499333333333333</v>
       </c>
       <c r="N4">
-        <v>0.076463</v>
+        <v>0.04498</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.002768895147777778</v>
+        <v>0.001365058037777778</v>
       </c>
       <c r="R4">
-        <v>0.02492005633</v>
+        <v>0.01228552234</v>
       </c>
       <c r="S4">
-        <v>0.09421324668717189</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="T4">
-        <v>0.09421324668717192</v>
+        <v>0.1733785887126465</v>
       </c>
     </row>
   </sheetData>
